--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail1 Features.xlsx
@@ -3417,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.360040820413584</v>
+        <v>1.375161645602861</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.312890326811554</v>
@@ -3506,7 +3506,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371431960531455</v>
+        <v>1.385041310030959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.375261906173585</v>
@@ -3595,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.379828119342733</v>
+        <v>1.3891722372502</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.301082063774005</v>
@@ -3684,7 +3684,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.362653347372173</v>
+        <v>1.371578143087278</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.347104412933676</v>
@@ -3773,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.359225452202242</v>
+        <v>1.371790644492456</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.313920971269304</v>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.364537471081738</v>
+        <v>1.378841426605732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.306830223194599</v>
@@ -3951,7 +3951,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.372385886472121</v>
+        <v>1.387183255597708</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.170542538885441</v>
@@ -4040,7 +4040,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.372977740466378</v>
+        <v>1.385017250314961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.185831365049332</v>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.368055317235878</v>
+        <v>1.373002890184849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.108111970992871</v>
@@ -4218,7 +4218,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.38323382022779</v>
+        <v>1.39404994476969</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.15954443346252</v>
@@ -4307,7 +4307,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.413853987910581</v>
+        <v>1.421221880729392</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.935331978132354</v>
@@ -4396,7 +4396,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.496201810909128</v>
+        <v>1.501234222801188</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.210695622461014</v>
@@ -4485,7 +4485,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.512528907383319</v>
+        <v>1.512569985332388</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.13270053573112</v>
@@ -4574,7 +4574,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.543050064097992</v>
+        <v>1.534443456473644</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.008512080880261</v>
@@ -4663,7 +4663,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545927309361148</v>
+        <v>1.534563914109226</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.234728538953471</v>
@@ -4752,7 +4752,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.50608738004268</v>
+        <v>1.506464951196212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22922419786949</v>
@@ -4841,7 +4841,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466031714383468</v>
+        <v>1.473911690185491</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.085972718552418</v>
@@ -4930,7 +4930,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.431845624727916</v>
+        <v>1.449706245490123</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.138508520820728</v>
@@ -5019,7 +5019,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.446422647748996</v>
+        <v>1.467583496974022</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.187754973473062</v>
@@ -5108,7 +5108,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.418595289669324</v>
+        <v>1.4383341992027</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.182389130452531</v>
@@ -5197,7 +5197,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.420123854286302</v>
+        <v>1.440310216525526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.107930433095826</v>
@@ -5286,7 +5286,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.385461957566255</v>
+        <v>1.409361585899576</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.112109654170412</v>
@@ -5375,7 +5375,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.38742620012024</v>
+        <v>1.4104034975864</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.087498653307723</v>
@@ -5464,7 +5464,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.395263778793665</v>
+        <v>1.418443742916857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.123515723260437</v>
@@ -5553,7 +5553,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.395077999147148</v>
+        <v>1.419263224333969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.109665746266848</v>
@@ -5642,7 +5642,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.398962500660242</v>
+        <v>1.427171764564813</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.145120554782994</v>
@@ -5731,7 +5731,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.404561265672053</v>
+        <v>1.429773784333333</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.998712299942371</v>
@@ -5820,7 +5820,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.426401711775736</v>
+        <v>1.457285073388507</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.085106500567763</v>
@@ -5909,7 +5909,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.416279863335646</v>
+        <v>1.445595736662881</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.129872162854138</v>
@@ -5998,7 +5998,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.445757305333756</v>
+        <v>1.474685420841104</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.103507160403963</v>
@@ -6087,7 +6087,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.453766807531275</v>
+        <v>1.47734326904605</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.161971013909105</v>
@@ -6176,7 +6176,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.48333090798734</v>
+        <v>1.501430101651681</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.200268400491609</v>
@@ -6265,7 +6265,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530453191727563</v>
+        <v>1.537744723061458</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.242060130142343</v>
@@ -6354,7 +6354,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.571788458877554</v>
+        <v>1.565771529263306</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.139955617096897</v>
@@ -6443,7 +6443,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600589244265847</v>
+        <v>1.583576825760641</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.077890178199985</v>
@@ -6532,7 +6532,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612430090395272</v>
+        <v>1.577046987208521</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.018423753298388</v>
@@ -6621,7 +6621,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.637502518453428</v>
+        <v>1.610069839706933</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.154467789415293</v>
@@ -6710,7 +6710,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597349897505922</v>
+        <v>1.583861432340836</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.229547256539845</v>
@@ -6799,7 +6799,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.608630647919999</v>
+        <v>1.600901172325693</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.249469650292085</v>
@@ -6888,7 +6888,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612534779717315</v>
+        <v>1.602383165156918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.223011982175315</v>
@@ -6977,7 +6977,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613855408665543</v>
+        <v>1.602913262691702</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.236642001742163</v>
@@ -7066,7 +7066,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.617486680604075</v>
+        <v>1.606791549904751</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.198198864201494</v>
@@ -7352,7 +7352,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43225165285027</v>
+        <v>1.416029786181672</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.469978341751306</v>
@@ -7441,7 +7441,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.435908082537396</v>
+        <v>1.421727473943839</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.411601318912188</v>
@@ -7530,7 +7530,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.439868250275548</v>
+        <v>1.427203544047823</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.282623382815496</v>
@@ -7619,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.442138880370803</v>
+        <v>1.431898595012592</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.267031074868366</v>
@@ -7708,7 +7708,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.478309158177003</v>
+        <v>1.47719960393043</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.231031812317121</v>
@@ -7797,7 +7797,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456095225919533</v>
+        <v>1.461759621334003</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.272716650228165</v>
@@ -7886,7 +7886,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445109688589303</v>
+        <v>1.44378790924448</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.272585993244221</v>
@@ -7975,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.432468175867382</v>
+        <v>1.430625700612373</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.197676299333088</v>
@@ -8064,7 +8064,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.429293973610533</v>
+        <v>1.423479468844638</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.216019436236111</v>
@@ -8153,7 +8153,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425276212216981</v>
+        <v>1.424368459994836</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.159815663899785</v>
@@ -8242,7 +8242,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.4390276662394</v>
+        <v>1.432004505988883</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.268676178813152</v>
@@ -8331,7 +8331,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472304643672453</v>
+        <v>1.467351097628699</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.236036218779929</v>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.499675191626264</v>
+        <v>1.491633521214649</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.186071422668214</v>
@@ -8509,7 +8509,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523568519753567</v>
+        <v>1.512452809648607</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.164963954361485</v>
@@ -8598,7 +8598,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538375223907152</v>
+        <v>1.525632554476335</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.155798423934419</v>
@@ -8687,7 +8687,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.544843632968529</v>
+        <v>1.529318825278209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.155915958744314</v>
@@ -8776,7 +8776,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.537931385211315</v>
+        <v>1.523522789900581</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.136713721965996</v>
@@ -8865,7 +8865,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542986670391123</v>
+        <v>1.539041804096408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.171578244203465</v>
@@ -8954,7 +8954,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.548203580257161</v>
+        <v>1.543473251335739</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.214806731963819</v>
@@ -9043,7 +9043,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.547248840499871</v>
+        <v>1.522760851323911</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.230601196510443</v>
@@ -9132,7 +9132,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569473866498696</v>
+        <v>1.545046306017035</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.603303900669561</v>
@@ -9221,7 +9221,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575793593544359</v>
+        <v>1.555919845691883</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.863835432638578</v>
@@ -9310,7 +9310,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.587268151314313</v>
+        <v>1.560835852943236</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.563792374695878</v>
@@ -9399,7 +9399,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590844389420753</v>
+        <v>1.562258648832335</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.605433838417013</v>
@@ -9488,7 +9488,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5919853742648</v>
+        <v>1.564871538860627</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.580063020411666</v>
@@ -9577,7 +9577,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.607267813124442</v>
+        <v>1.575543114324601</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.835996376054886</v>
@@ -9666,7 +9666,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617966894334222</v>
+        <v>1.581234826716194</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.47282369688594</v>
@@ -9755,7 +9755,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628769094541811</v>
+        <v>1.590405058294384</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.713853477285331</v>
@@ -9844,7 +9844,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603805710459362</v>
+        <v>1.564951581649502</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.663892701075579</v>
@@ -9933,7 +9933,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61144999533068</v>
+        <v>1.571233905325022</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.688416288202539</v>
@@ -10022,7 +10022,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592537622388382</v>
+        <v>1.554959957667289</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.56529164803298</v>
@@ -10111,7 +10111,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599377471117409</v>
+        <v>1.553699091784304</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.691275097008736</v>
@@ -10200,7 +10200,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.585398283135729</v>
+        <v>1.54236522506046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.862170938160212</v>
@@ -10289,7 +10289,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589038889149963</v>
+        <v>1.540948937535826</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.686758478591159</v>
@@ -10378,7 +10378,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582510105206546</v>
+        <v>1.529325437010292</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.968703656149583</v>
@@ -10467,7 +10467,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.572931867640032</v>
+        <v>1.517640070587014</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.88377304322559</v>
@@ -10556,7 +10556,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.556851379816295</v>
+        <v>1.507672913634247</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.909892755480862</v>
@@ -10645,7 +10645,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539209792571147</v>
+        <v>1.497970919383368</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.731695896147755</v>
@@ -10734,7 +10734,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.540751539238708</v>
+        <v>1.503294701297285</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.707150763644895</v>
@@ -10823,7 +10823,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53349371226398</v>
+        <v>1.495116609438407</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.682766331902083</v>
@@ -10912,7 +10912,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547096553511297</v>
+        <v>1.511863760252869</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.679183663541555</v>
@@ -11001,7 +11001,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.556418290763476</v>
+        <v>1.518963614313737</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.693094409299692</v>
@@ -11287,7 +11287,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.630534255891281</v>
+        <v>1.608698962289773</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.354162484048101</v>
@@ -11376,7 +11376,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.629904357045484</v>
+        <v>1.613400820104629</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.286629481298869</v>
@@ -11465,7 +11465,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.631075686530076</v>
+        <v>1.599292780324675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.231301339873306</v>
@@ -11554,7 +11554,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.68889191755552</v>
+        <v>1.637484685401295</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.252944222250473</v>
@@ -11643,7 +11643,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.681879507822179</v>
+        <v>1.638980613795045</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.311645698629499</v>
@@ -11732,7 +11732,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.660163879688341</v>
+        <v>1.622258627490583</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365763353530402</v>
@@ -11821,7 +11821,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.650358747111168</v>
+        <v>1.606957750056335</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.335882287418961</v>
@@ -11910,7 +11910,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646001829587749</v>
+        <v>1.593634357077247</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.400463825167275</v>
@@ -11999,7 +11999,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.638404368520516</v>
+        <v>1.575356407155557</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.295176098830052</v>
@@ -12088,7 +12088,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651793550152224</v>
+        <v>1.582947703848333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.321770819292851</v>
@@ -12177,7 +12177,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653804558732133</v>
+        <v>1.574137218815484</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.319917341731909</v>
@@ -12266,7 +12266,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674837832880231</v>
+        <v>1.59843161242615</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.205461424622178</v>
@@ -12355,7 +12355,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674117815114164</v>
+        <v>1.590779955505542</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.302057529032117</v>
@@ -12444,7 +12444,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.671551284695408</v>
+        <v>1.582853209958478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.371438336860569</v>
@@ -12533,7 +12533,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677968466004081</v>
+        <v>1.592069384651255</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.273435247380192</v>
@@ -12622,7 +12622,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.673881192106159</v>
+        <v>1.587621246866139</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.293786980032389</v>
@@ -12711,7 +12711,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.680676184753261</v>
+        <v>1.599791553983206</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.345909959831062</v>
@@ -12800,7 +12800,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680959625738287</v>
+        <v>1.617046797560734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.287704583541309</v>
@@ -12889,7 +12889,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.694750760407131</v>
+        <v>1.631925912266515</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.419756855133418</v>
@@ -12978,7 +12978,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.71534238151981</v>
+        <v>1.628810632658415</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.662285097467321</v>
@@ -13067,7 +13067,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.732593282043452</v>
+        <v>1.644733431418234</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.134376181488257</v>
@@ -13156,7 +13156,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.743433800782745</v>
+        <v>1.658371656895056</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.431910862924835</v>
@@ -13245,7 +13245,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.743728553794915</v>
+        <v>1.656015814675533</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.636199144717315</v>
@@ -13334,7 +13334,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.751237186259506</v>
+        <v>1.673903131073458</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.42286755135034</v>
@@ -13423,7 +13423,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.751829094025142</v>
+        <v>1.674023208870241</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.489402981488404</v>
@@ -13512,7 +13512,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.753686487837048</v>
+        <v>1.685031584047584</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.618611106550603</v>
@@ -13601,7 +13601,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.755976375339724</v>
+        <v>1.690108190026632</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.216293860889145</v>
@@ -13690,7 +13690,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.76311040306955</v>
+        <v>1.706371395321662</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.312631279414913</v>
@@ -13779,7 +13779,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765703287188797</v>
+        <v>1.705872600132323</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.948271074912746</v>
@@ -13868,7 +13868,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.762632848246302</v>
+        <v>1.703389901069323</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.581609410433812</v>
@@ -13957,7 +13957,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.715065548672485</v>
+        <v>1.659637761609725</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.461211293550511</v>
@@ -14046,7 +14046,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.713942978501129</v>
+        <v>1.655091833083245</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.523126059614357</v>
@@ -14135,7 +14135,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.707786183047239</v>
+        <v>1.647153626137472</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.550047806142159</v>
@@ -14224,7 +14224,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699787745369402</v>
+        <v>1.632983300759004</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.554041373031678</v>
@@ -14313,7 +14313,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690770114693834</v>
+        <v>1.623064026235568</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.364914430333916</v>
@@ -14402,7 +14402,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69011455772979</v>
+        <v>1.616655131887071</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.512888730031358</v>
@@ -14491,7 +14491,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.684583451376747</v>
+        <v>1.613800496652624</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.543939161615905</v>
@@ -14580,7 +14580,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.683767819923259</v>
+        <v>1.622865891679625</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.45289446945628</v>
@@ -14669,7 +14669,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.669400728825222</v>
+        <v>1.608490992926445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.332660052904761</v>
@@ -14758,7 +14758,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.621799422303566</v>
+        <v>1.574032476897059</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.003562103057231</v>
@@ -14847,7 +14847,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.618200559300909</v>
+        <v>1.565443944046933</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.969804021801206</v>
@@ -14936,7 +14936,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.617166118743652</v>
+        <v>1.560979815850354</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.970136656148013</v>
@@ -15222,7 +15222,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686135272934467</v>
+        <v>1.680812331262841</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.537244632019106</v>
@@ -15311,7 +15311,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.691952287261743</v>
+        <v>1.679013006462153</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.579531428619866</v>
@@ -15400,7 +15400,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.698077274001071</v>
+        <v>1.681731751454675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.491751979368844</v>
@@ -15489,7 +15489,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.75682359123532</v>
+        <v>1.727378936262415</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.568112642416529</v>
@@ -15578,7 +15578,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.768421992921256</v>
+        <v>1.736608906341557</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.488250786331598</v>
@@ -15667,7 +15667,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.756884942117303</v>
+        <v>1.729735066156945</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.478590298853891</v>
@@ -15756,7 +15756,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754096359568435</v>
+        <v>1.727054474672631</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517072967212289</v>
@@ -15845,7 +15845,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.758742426563973</v>
+        <v>1.730188429411752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.443488122125335</v>
@@ -15934,7 +15934,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.762959723278559</v>
+        <v>1.731621473553239</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.41656376705667</v>
@@ -16023,7 +16023,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.768317309594419</v>
+        <v>1.731106484626249</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.430833248758378</v>
@@ -16112,7 +16112,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.774108191702569</v>
+        <v>1.732282172665409</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.37116284761046</v>
@@ -16201,7 +16201,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.794379052582832</v>
+        <v>1.745919095976606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.363130113760042</v>
@@ -16290,7 +16290,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.783919059301616</v>
+        <v>1.730155255775988</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.385639301769684</v>
@@ -16379,7 +16379,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.78411402741245</v>
+        <v>1.731242069534129</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.416007230579196</v>
@@ -16468,7 +16468,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.783437899597412</v>
+        <v>1.732776380486856</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.380606583707741</v>
@@ -16557,7 +16557,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77778380871362</v>
+        <v>1.72998852479718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.358455686082708</v>
@@ -16646,7 +16646,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.774078046373943</v>
+        <v>1.729508943798015</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.439745618367488</v>
@@ -16735,7 +16735,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.774567848494603</v>
+        <v>1.734559227372698</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.358038170226025</v>
@@ -16824,7 +16824,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.7760263052584</v>
+        <v>1.738734654852057</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.447772042523813</v>
@@ -16913,7 +16913,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.773373747498869</v>
+        <v>1.733402972343111</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.903875473250224</v>
@@ -17002,7 +17002,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.779222265418883</v>
+        <v>1.734889806994756</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.19842248042104</v>
@@ -17091,7 +17091,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.783281142722664</v>
+        <v>1.741337239441746</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.354439731028628</v>
@@ -17180,7 +17180,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.782355864166997</v>
+        <v>1.746974355350888</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.276198547560598</v>
@@ -17269,7 +17269,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.786385216767219</v>
+        <v>1.75281678273331</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.252847879987368</v>
@@ -17358,7 +17358,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.781695881442941</v>
+        <v>1.750889751366327</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.623816926865447</v>
@@ -17447,7 +17447,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.784996718900015</v>
+        <v>1.757346743405629</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.665017956236733</v>
@@ -17536,7 +17536,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.789108719101202</v>
+        <v>1.760819203060966</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.727668121708124</v>
@@ -17625,7 +17625,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.797891524889544</v>
+        <v>1.772365821379752</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.54911667282373</v>
@@ -17714,7 +17714,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.794775214264707</v>
+        <v>1.766166990409085</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.931682678296634</v>
@@ -17803,7 +17803,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.797218124281724</v>
+        <v>1.767451829842814</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.498069500833668</v>
@@ -17892,7 +17892,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.792262743277286</v>
+        <v>1.756186069745782</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.705531991072502</v>
@@ -17981,7 +17981,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.795530632005065</v>
+        <v>1.763538651068549</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.442830636401421</v>
@@ -18070,7 +18070,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.790163442477099</v>
+        <v>1.757928937361218</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.085533371243194</v>
@@ -18159,7 +18159,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.779790301503079</v>
+        <v>1.735065195266492</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.886627885491791</v>
@@ -18248,7 +18248,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.776765876388725</v>
+        <v>1.72969875010727</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.045112360399775</v>
@@ -18337,7 +18337,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.776440771137938</v>
+        <v>1.726333123608698</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.448395138054281</v>
@@ -18426,7 +18426,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.772331076193288</v>
+        <v>1.720940774719185</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.848360621475527</v>
@@ -18515,7 +18515,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.770820326135735</v>
+        <v>1.716952942413155</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.394753961457198</v>
@@ -18604,7 +18604,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.773930452390837</v>
+        <v>1.716282778225736</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.785270261025175</v>
@@ -18693,7 +18693,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.759916833244577</v>
+        <v>1.705755814464256</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.406595591232133</v>
@@ -18782,7 +18782,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.746796820293591</v>
+        <v>1.693559378588206</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.819580052838893</v>
@@ -18871,7 +18871,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.745363208096359</v>
+        <v>1.692958633237686</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.219618393153132</v>
@@ -19157,7 +19157,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.366285433260878</v>
+        <v>1.360221136876487</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.96840678119222</v>
@@ -19246,7 +19246,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.369980564268335</v>
+        <v>1.365556945603191</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.984113181036822</v>
@@ -19335,7 +19335,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.367871252778156</v>
+        <v>1.362658317907755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.959806566944806</v>
@@ -19424,7 +19424,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.365863241577956</v>
+        <v>1.361109032397007</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.940563420932495</v>
@@ -19513,7 +19513,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.416381198134172</v>
+        <v>1.412088212582463</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.076530600798002</v>
@@ -19602,7 +19602,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.395677856903973</v>
+        <v>1.392929962825202</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.076115636630153</v>
@@ -19691,7 +19691,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.391381012883135</v>
+        <v>1.387120675883373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.103562350214425</v>
@@ -19780,7 +19780,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.388991507954319</v>
+        <v>1.381971988581935</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.059295362315195</v>
@@ -19869,7 +19869,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.389059130238767</v>
+        <v>1.380302883634939</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.062374191556154</v>
@@ -19958,7 +19958,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.392047466456086</v>
+        <v>1.381743673553182</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.036605065517987</v>
@@ -20047,7 +20047,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.418240718301061</v>
+        <v>1.398059367557126</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.845166674915128</v>
@@ -20136,7 +20136,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480569737623463</v>
+        <v>1.471539681213629</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.967732945576591</v>
@@ -20225,7 +20225,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522315506184486</v>
+        <v>1.515006769541859</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.176671385156482</v>
@@ -20314,7 +20314,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558325137887306</v>
+        <v>1.53734099819295</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.01072401455021</v>
@@ -20403,7 +20403,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.593255075053153</v>
+        <v>1.574977207551501</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.195663732311743</v>
@@ -20492,7 +20492,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.590563252446919</v>
+        <v>1.573068737753529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.23353453137464</v>
@@ -20581,7 +20581,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.579248783269459</v>
+        <v>1.561985547417886</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.229530872223179</v>
@@ -20670,7 +20670,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566215455244081</v>
+        <v>1.559580278696056</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.250885903622544</v>
@@ -20759,7 +20759,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574396062940294</v>
+        <v>1.574573386831939</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.246008553236245</v>
@@ -20848,7 +20848,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.576843437098647</v>
+        <v>1.572159891150225</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.759015439603744</v>
@@ -20937,7 +20937,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.562811513820642</v>
+        <v>1.563974957988233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.613035897387645</v>
@@ -21026,7 +21026,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579208442516353</v>
+        <v>1.585364919844197</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.681273243665613</v>
@@ -21115,7 +21115,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.601859738665816</v>
+        <v>1.606854829580849</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.549525323020663</v>
@@ -21204,7 +21204,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601619744130671</v>
+        <v>1.611274273478248</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.601367942853897</v>
@@ -21293,7 +21293,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608164621420215</v>
+        <v>1.614152743652648</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.578094821840552</v>
@@ -21382,7 +21382,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621773898321082</v>
+        <v>1.627503090447227</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.584278802030995</v>
@@ -21471,7 +21471,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617928123946147</v>
+        <v>1.625747146054152</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.518287413853192</v>
@@ -21560,7 +21560,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621083479146213</v>
+        <v>1.62475269087811</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.667543410167325</v>
@@ -21649,7 +21649,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.606384303639846</v>
+        <v>1.608668436384721</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.707835820547452</v>
@@ -21738,7 +21738,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610202845161771</v>
+        <v>1.610315163648224</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.496622460371531</v>
@@ -21827,7 +21827,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.606788637567496</v>
+        <v>1.607152334692518</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.644634713681419</v>
@@ -21916,7 +21916,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638380817730065</v>
+        <v>1.631561703328191</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.211876546001302</v>
@@ -22005,7 +22005,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644465957983059</v>
+        <v>1.633401971164401</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.635250341647898</v>
@@ -22094,7 +22094,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615522725042714</v>
+        <v>1.60290544194952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.564730086983422</v>
@@ -22183,7 +22183,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612330824733011</v>
+        <v>1.595717269408246</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.251413900746046</v>
@@ -22272,7 +22272,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.635636464539049</v>
+        <v>1.611990983651207</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.704307088069822</v>
@@ -22361,7 +22361,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617577951469642</v>
+        <v>1.589332850820769</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.703876954177474</v>
@@ -22450,7 +22450,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.592074862344073</v>
+        <v>1.56655887493515</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.688048297422361</v>
@@ -22539,7 +22539,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.59174960065455</v>
+        <v>1.564544377494526</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.563783058683485</v>
@@ -22628,7 +22628,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584337117768954</v>
+        <v>1.559842528806939</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.703217903516594</v>
@@ -22717,7 +22717,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.582688619291552</v>
+        <v>1.555277706019789</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.650329215441981</v>
@@ -22806,7 +22806,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588866444070333</v>
+        <v>1.558629767788707</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.660025051444364</v>
@@ -23092,7 +23092,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.331264830020432</v>
+        <v>1.341004887767782</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.872756453250241</v>
@@ -23181,7 +23181,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342051350444191</v>
+        <v>1.352703722527547</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.85365477373688</v>
@@ -23270,7 +23270,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.356936576908337</v>
+        <v>1.36297105695496</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.779712934250055</v>
@@ -23359,7 +23359,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.431490018079524</v>
+        <v>1.441666499436154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.082307030453373</v>
@@ -23448,7 +23448,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455979774199835</v>
+        <v>1.466242482420879</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.16300620475349</v>
@@ -23537,7 +23537,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.462537021306199</v>
+        <v>1.475708143098007</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.202195888208573</v>
@@ -23626,7 +23626,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.467219619001883</v>
+        <v>1.48028973745789</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.249440111356531</v>
@@ -23715,7 +23715,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.47098161736074</v>
+        <v>1.482453634150114</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.274901867272698</v>
@@ -23804,7 +23804,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.48309769437856</v>
+        <v>1.489185434468165</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.223838120161076</v>
@@ -23893,7 +23893,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.517193445381715</v>
+        <v>1.535339966505165</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.18318894952856</v>
@@ -23982,7 +23982,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551501484278933</v>
+        <v>1.572486625083675</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.99318167054524</v>
@@ -24071,7 +24071,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.645261410463936</v>
+        <v>1.675407558362726</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.043470402446207</v>
@@ -24160,7 +24160,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.675625220690633</v>
+        <v>1.707811254184721</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381853165402029</v>
@@ -24249,7 +24249,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.699005658352106</v>
+        <v>1.725284991606175</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.359771813034361</v>
@@ -24338,7 +24338,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.734520194888196</v>
+        <v>1.76016718366115</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.647215916975322</v>
@@ -24427,7 +24427,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672109096006288</v>
+        <v>1.704184016519982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.656897906250479</v>
@@ -24516,7 +24516,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64156458566444</v>
+        <v>1.671768073960971</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.655603482774408</v>
@@ -24605,7 +24605,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613698997163919</v>
+        <v>1.650182601515219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.757956806172755</v>
@@ -24694,7 +24694,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.641461891505672</v>
+        <v>1.679081889163659</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.780126232336512</v>
@@ -24783,7 +24783,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.608227237413524</v>
+        <v>1.646887437033899</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.682802773146619</v>
@@ -24872,7 +24872,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614395784391065</v>
+        <v>1.649380432804581</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.704090385536966</v>
@@ -24961,7 +24961,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601577862202433</v>
+        <v>1.64078575421234</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.733130185151298</v>
@@ -25050,7 +25050,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606447030208686</v>
+        <v>1.646875345090389</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.808965282629317</v>
@@ -25139,7 +25139,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622368416590469</v>
+        <v>1.664475728061605</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.688125149588935</v>
@@ -25228,7 +25228,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627793803683127</v>
+        <v>1.6699476946823</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.802880123153065</v>
@@ -25317,7 +25317,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63133273396519</v>
+        <v>1.676599950903296</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.881871570400094</v>
@@ -25406,7 +25406,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.636096000536754</v>
+        <v>1.680227397199156</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.678962003230589</v>
@@ -25495,7 +25495,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.654618500449448</v>
+        <v>1.700987807977972</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.837150394811481</v>
@@ -25584,7 +25584,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.639507493954776</v>
+        <v>1.685417954850931</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.468842743033963</v>
@@ -25673,7 +25673,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666547270166658</v>
+        <v>1.710755541508917</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.474275987678586</v>
@@ -25762,7 +25762,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.694995468330946</v>
+        <v>1.741233878683413</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.840245051098142</v>
@@ -25851,7 +25851,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724954144113676</v>
+        <v>1.771092885345707</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.782120850499657</v>
@@ -25940,7 +25940,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.756815919280392</v>
+        <v>1.797444344354042</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.895086367786782</v>
@@ -26029,7 +26029,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.782132292417813</v>
+        <v>1.816232992746283</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.61656139857848</v>
@@ -26118,7 +26118,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.801558091260985</v>
+        <v>1.829390732672754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.722012369544678</v>
@@ -26207,7 +26207,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.80004457496686</v>
+        <v>1.82062773542892</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.605102816165725</v>
@@ -26296,7 +26296,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.793792666181974</v>
+        <v>1.819129396214618</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.71595926401312</v>
@@ -26385,7 +26385,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.771945322072298</v>
+        <v>1.799379718061105</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.689187983111754</v>
@@ -26474,7 +26474,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769265390680228</v>
+        <v>1.798248570367267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.721159007561708</v>
@@ -26563,7 +26563,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.761681898059376</v>
+        <v>1.791043892844025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.592447922323546</v>
@@ -26652,7 +26652,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.754101856179108</v>
+        <v>1.778476018054659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.634438169040477</v>
@@ -26741,7 +26741,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746845413071906</v>
+        <v>1.771201576505001</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.529493474681867</v>
